--- a/SuppXLS/Scen_UC_SOLCAP.xlsx
+++ b/SuppXLS/Scen_UC_SOLCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AC6D1-9AE1-45DD-9CBD-4DC73FA91246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC327F3A-F9E5-40FB-B0BF-450715A4084C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="2280" windowWidth="15336" windowHeight="8040" xr2:uid="{00A3DC7E-39FB-4A3C-A733-01FFF7343FDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00A3DC7E-39FB-4A3C-A733-01FFF7343FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="T_Fill Sun" sheetId="2" r:id="rId1"/>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F39DD8-DA2C-4F98-A5B4-0371E9395921}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66624BBC-9B04-4A2A-ABA5-B793098828BF}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_SOLCAP.xlsx
+++ b/SuppXLS/Scen_UC_SOLCAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC327F3A-F9E5-40FB-B0BF-450715A4084C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB125E-25AE-49BC-B97C-F745050DB48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00A3DC7E-39FB-4A3C-A733-01FFF7343FDF}"/>
   </bookViews>
@@ -230,6 +230,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="J5" t="str">
+            <v>ELCWINON</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="J7" t="str">
             <v>ELCSOL</v>
@@ -574,7 +579,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
